--- a/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
+++ b/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
@@ -134,73 +134,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId已存在</t>
     <rPh sb="14" eb="15">
       <t>yi'cun'zai</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -208,7 +208,7 @@
     "resMsg": "请求重复",
     "successful": 1
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -216,7 +216,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -229,7 +229,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -242,7 +242,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -255,7 +255,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -268,7 +268,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -281,7 +281,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -294,23 +294,23 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://user-center-thu.tunaikita.id/user</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>https://user-center-thu.tunaikita.id/user</t>
+    <t>exceptSQL</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>selSQL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>actualParam</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>注销成功</t>
@@ -320,16 +320,7 @@
     <rPh sb="2" eb="3">
       <t>bu</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20235",
-"tenantId":"1001",
-"tenantUserId":"001",
-"deleteData":"mobileNo,certNo"
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -337,14 +328,14 @@
     "resMsg": "用户不存在",
     "successful": 0
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData缺失</t>
     <rPh sb="16" eb="17">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -352,14 +343,14 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为all</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为部分值4选2，3</t>
@@ -375,7 +366,7 @@
     <rPh sb="21" eb="22">
       <t>xuan</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为创建时为空参数</t>
@@ -394,14 +385,25 @@
     <rPh sb="22" eb="23">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为 name11</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-deleteData为dwewr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-deleteData为空</t>
+    <rPh sb="17" eb="18">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -409,32 +411,13 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-deleteData为dwewr</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-deleteData为空</t>
-    <rPh sb="17" eb="18">
-      <t>kong</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1
-}</t>
     <rPh sb="0" eb="1">
       <t>bu'zuo</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>shan'chu</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -443,7 +426,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -452,16 +435,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value []; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"202381",
-"tenantId":"",
-"tenantUserId":"123",
-"deleteData":"email"
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -470,7 +444,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value []; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -479,7 +453,7 @@
 "tenantUserId":"",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-deleteData</t>
@@ -492,7 +466,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -500,16 +474,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"requestId":"20231",
-"tenantId":"1001",
-"tenantUserId":"000111",
-"deleteData":"name"}
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -517,20 +482,11 @@
 "tenantId":"1001",
 "tenantUserId":"833330"
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>/logout</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20231",
-"tenantId":"1001",
-"tenantUserId":"000111",
-"deleteData":"mobileNo,certNo"
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -539,7 +495,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value []; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -547,7 +503,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -556,7 +512,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -564,7 +520,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -573,7 +529,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -581,7 +537,7 @@
 "tenantId":"1001",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -590,69 +546,11 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_value</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ey_value</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =833334 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20233",
-"tenantId":"1001",
-"tenantUserId":"000111",
-"deleteData":"mobileNo,certNo"
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "certNo"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =533333 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =533335 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>李**</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -680,140 +578,336 @@
     "successful": 1
 }</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>userLogout-001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>userLogout-002</t>
+  </si>
+  <si>
+    <t>userLogout-003</t>
+  </si>
+  <si>
+    <t>userLogout-004</t>
+  </si>
+  <si>
+    <t>userLogout-005</t>
+  </si>
+  <si>
+    <t>userLogout-006</t>
+  </si>
+  <si>
+    <t>userLogout-007</t>
+  </si>
+  <si>
+    <t>userLogout-008</t>
+  </si>
+  <si>
+    <t>userLogout-009</t>
+  </si>
+  <si>
+    <t>userLogout-010</t>
+  </si>
+  <si>
+    <t>userLogout-011</t>
+  </si>
+  <si>
+    <t>userLogout-012</t>
+  </si>
+  <si>
+    <t>userLogout-013</t>
+  </si>
+  <si>
+    <t>userLogout-014</t>
+  </si>
+  <si>
+    <t>userLogout-015</t>
+  </si>
+  <si>
+    <t>userLogout-016</t>
+  </si>
+  <si>
+    <t>userLogout-017</t>
+  </si>
+  <si>
+    <t>{
+"requestId":"20231",
+"tenantId":"1001",
+"tenantUserId":"005",
+"deleteData":"mobileNo,certNo"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"20236",
+"tenantId":"1001",
+"tenantUserId":"009"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小*</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
 "requestId":"20301",
 "tenantId":"1001",
-"tenantUserId":"833334",
+"tenantUserId":"009",
 "deleteData":"all"
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"20238",
+"tenantId":"1001",
+"tenantUserId":"005",
+"deleteData":"dwewr"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"20239",
+"tenantId":"1001",
+"tenantUserId":"005",
+"deleteData":""
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
 "requestId":"20300002",
 "tenantId":"1001",
-"tenantUserId":"533333",
+"tenantUserId":"110",
 "deleteData":"all"
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select  key_value from user_info_item where tenant_user_id =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "name"</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"requestId":"20236",
+    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (10002290,"793145221335302111","1001","009","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (10002319,"793145221335302111","1001","009","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100002901,"793145221335302111","1001","009","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100000251,"793145221335302111","1001","009","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("793145221335302111","1001","009",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("793145221335302111","1001","009","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (101002981,"793145221335302333","1001","110","name",null,null,null,"0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,create_time,update_time) values ("793145221335302333","1001","110","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"requestId":"20231",
 "tenantId":"1001",
-"tenantUserId":"533335"
-}</t>
+"tenantUserId":"005",
+"deleteData":"name"}
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "name"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"requestId":"20238",
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue_en</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"20235",
 "tenantId":"1001",
-"tenantUserId":"533335",
-"deleteData":"dwewr"
-}</t>
+"tenantUserId":"aaa",
+"deleteData":"mobileNo,certNo"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id = 009 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 009 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 009 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id = 110 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 110 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">delete from user_request_serial where tenant_id = 1001
+</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"requestId":"20239",
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue_md</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"202381",
+"tenantId":"",
+"tenantUserId":"123",
+"deleteData":"email"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "name"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"2029937",
 "tenantId":"1001",
-"tenantUserId":"000111",
-"deleteData":""
-}</t>
+"tenantUserId":"005",
+"deleteData":"email111"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"2023003",
+"tenantId":"1001",
+"tenantUserId":"005",
+"deleteData":"mobileNo,certNo"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a71249d4fe6f56f76de86b532ef74c1b</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>select  key_value from user_info_item where tenant_user_id =533335 and tenant_id = 1001 and key_name = "email"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =533335 and tenant_id = 1001 and key_name = "email"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =533335 and tenant_id = 1001 and key_name = "email"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9834***@126.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20237",
-"tenantId":"1001",
-"tenantUserId":"000111",
-"deleteData":"email111"
-}</t>
+    <r>
+      <t xml:space="preserve">select  * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from user_info_item where tenant_user_id =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>005 and tenant_id = 1001 and key_name = "email"</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>userLogout-001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>userLogout-002</t>
-  </si>
-  <si>
-    <t>userLogout-003</t>
-  </si>
-  <si>
-    <t>userLogout-004</t>
-  </si>
-  <si>
-    <t>userLogout-005</t>
-  </si>
-  <si>
-    <t>userLogout-006</t>
-  </si>
-  <si>
-    <t>userLogout-007</t>
-  </si>
-  <si>
-    <t>userLogout-008</t>
-  </si>
-  <si>
-    <t>userLogout-009</t>
-  </si>
-  <si>
-    <t>userLogout-010</t>
-  </si>
-  <si>
-    <t>userLogout-011</t>
-  </si>
-  <si>
-    <t>userLogout-012</t>
-  </si>
-  <si>
-    <t>userLogout-013</t>
-  </si>
-  <si>
-    <t>userLogout-014</t>
-  </si>
-  <si>
-    <t>userLogout-015</t>
-  </si>
-  <si>
-    <t>userLogout-016</t>
-  </si>
-  <si>
-    <t>userLogout-017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -943,49 +1037,49 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1009,29 +1103,44 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1317,9 +1426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1329,7 +1438,7 @@
     <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
@@ -1338,7 +1447,7 @@
     <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="28.9140625" style="8" customWidth="1"/>
     <col min="16" max="16" width="65.9140625" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
@@ -1393,42 +1502,46 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="73.25" customHeight="1">
+    <row r="2" spans="1:16" ht="409.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>88</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="25" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="102.5" customHeight="1">
@@ -1436,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>29</v>
@@ -1449,20 +1562,20 @@
         <v>24</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="24"/>
-      <c r="O3" s="27"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:16" ht="73.25" customHeight="1">
@@ -1470,7 +1583,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>15</v>
@@ -1483,13 +1596,13 @@
         <v>24</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="16" t="s">
@@ -1502,10 +1615,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1515,26 +1628,26 @@
         <v>24</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="71.400000000000006" customHeight="1">
@@ -1542,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1555,35 +1668,35 @@
         <v>24</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="25" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="30" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="69.650000000000006" customHeight="1">
+    <row r="7" spans="1:16" ht="71.400000000000006" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -1593,35 +1706,37 @@
         <v>24</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="L7" s="15"/>
-      <c r="M7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="25" t="s">
-        <v>65</v>
+      <c r="M7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="43.25" customHeight="1">
+    <row r="8" spans="1:16" ht="71.400000000000006" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1631,35 +1746,37 @@
         <v>24</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>73</v>
+      <c r="K8" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="L8" s="15"/>
-      <c r="M8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="25" t="s">
-        <v>67</v>
+      <c r="M8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="53.4" customHeight="1">
+    <row r="9" spans="1:16" ht="71.400000000000006" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1669,37 +1786,37 @@
         <v>24</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>81</v>
+      <c r="K9" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="L9" s="15"/>
-      <c r="M9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>68</v>
+      <c r="M9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>79</v>
+        <v>94</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="79.25" customHeight="1">
+    <row r="10" spans="1:16" ht="69.650000000000006" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1709,37 +1826,35 @@
         <v>24</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="L10" s="15"/>
-      <c r="M10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>78</v>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="30" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="120.65" customHeight="1">
+    <row r="11" spans="1:16" ht="144.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1749,26 +1864,24 @@
         <v>24</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>76</v>
+      <c r="K11" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="94.75" customHeight="1">
@@ -1776,7 +1889,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>18</v>
@@ -1789,17 +1902,17 @@
         <v>24</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N12" s="9"/>
     </row>
@@ -1808,7 +1921,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>19</v>
@@ -1821,17 +1934,17 @@
         <v>24</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N13" s="9"/>
     </row>
@@ -1840,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>20</v>
@@ -1853,17 +1966,17 @@
         <v>24</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="252">
@@ -1871,7 +1984,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>21</v>
@@ -1884,17 +1997,17 @@
         <v>24</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="266">
@@ -1902,7 +2015,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>22</v>
@@ -1915,17 +2028,17 @@
         <v>24</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="266">
@@ -1933,7 +2046,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>23</v>
@@ -1946,17 +2059,17 @@
         <v>24</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="70">
@@ -1964,10 +2077,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1977,28 +2090,31 @@
         <v>24</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
-    <hyperlink ref="O11" r:id="rId2"/>
-    <hyperlink ref="O9:O10" r:id="rId3" display="9834***@126.com"/>
+    <hyperlink ref="H7:H9" r:id="rId2" display="https://user-center-thu.tunaikita.id/user"/>
+    <hyperlink ref="O7:O8" r:id="rId3" display="9834***@126.com"/>
+    <hyperlink ref="O7" r:id="rId4" display="1234***@126.com"/>
+    <hyperlink ref="O8" r:id="rId5" display="1234***@126.com"/>
+    <hyperlink ref="O9" r:id="rId6" display="1234***@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
+++ b/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
@@ -134,73 +134,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId已存在</t>
     <rPh sb="14" eb="15">
       <t>yi'cun'zai</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -208,7 +208,7 @@
     "resMsg": "请求重复",
     "successful": 1
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -216,7 +216,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -229,7 +229,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -242,7 +242,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -255,7 +255,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -268,7 +268,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -281,7 +281,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -294,23 +294,11 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actualParam</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>注销成功</t>
@@ -320,7 +308,7 @@
     <rPh sb="2" eb="3">
       <t>bu</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -328,14 +316,14 @@
     "resMsg": "用户不存在",
     "successful": 0
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData缺失</t>
     <rPh sb="16" eb="17">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -343,14 +331,14 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为all</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为部分值4选2，3</t>
@@ -366,7 +354,7 @@
     <rPh sb="21" eb="22">
       <t>xuan</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为创建时为空参数</t>
@@ -385,25 +373,25 @@
     <rPh sb="22" eb="23">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为 name11</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为dwewr</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为空</t>
     <rPh sb="17" eb="18">
       <t>kong</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -417,7 +405,7 @@
     <rPh sb="2" eb="3">
       <t>shan'chu</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -426,16 +414,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value []; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -444,7 +423,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value []; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -453,7 +432,7 @@
 "tenantUserId":"",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-deleteData</t>
@@ -466,7 +445,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -474,19 +453,11 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20301",
-"tenantId":"1001",
-"tenantUserId":"833330"
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>/logout</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -495,7 +466,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value []; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -503,7 +474,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -512,7 +483,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -520,7 +491,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -529,7 +500,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -537,7 +508,7 @@
 "tenantId":"1001",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -546,11 +517,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -578,11 +545,11 @@
     "successful": 1
 }</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>userLogout-001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>userLogout-002</t>
@@ -634,64 +601,33 @@
   </si>
   <si>
     <t>{
-"requestId":"20231",
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"20235",
 "tenantId":"1001",
-"tenantUserId":"005",
+"tenantUserId":"aaa",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20236",
-"tenantId":"1001",
-"tenantUserId":"009"
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小*</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20301",
-"tenantId":"1001",
-"tenantUserId":"009",
-"deleteData":"all"
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20238",
-"tenantId":"1001",
-"tenantUserId":"005",
-"deleteData":"dwewr"
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20239",
-"tenantId":"1001",
-"tenantUserId":"005",
-"deleteData":""
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20300002",
-"tenantId":"1001",
-"tenantUserId":"110",
-"deleteData":"all"
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"202381",
+"tenantId":"",
+"tenantUserId":"123",
+"deleteData":"email"
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>select  key_value from user_info_item where tenant_user_id =</t>
+      <t xml:space="preserve">select  </t>
     </r>
     <r>
       <rPr>
@@ -702,7 +638,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 009</t>
+      <t>value_md</t>
     </r>
     <r>
       <rPr>
@@ -713,52 +649,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "name"</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (10002290,"793145221335302111","1001","009","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (10002319,"793145221335302111","1001","009","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100002901,"793145221335302111","1001","009","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100000251,"793145221335302111","1001","009","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("793145221335302111","1001","009",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("793145221335302111","1001","009","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (101002981,"793145221335302333","1001","110","name",null,null,null,"0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,create_time,update_time) values ("793145221335302333","1001","110","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"requestId":"20231",
-"tenantId":"1001",
-"tenantUserId":"005",
-"deleteData":"name"}
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -769,30 +660,96 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>alue_en</t>
+      <t xml:space="preserve"> from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20235",
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 005 and tenant_id = 1001;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"20301",
 "tenantId":"1001",
-"tenantUserId":"aaa",
-"deleteData":"mobileNo,certNo"
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+"tenantUserId":"005"
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 009 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 009 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 009 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 110 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 110 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
+      <t>select value_en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+select value_md from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "name"</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value []; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
 </t>
     </r>
     <r>
@@ -807,11 +764,11 @@
       <t xml:space="preserve">delete from user_request_serial where tenant_id = 1001
 </t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>v</t>
+      <t xml:space="preserve">select </t>
     </r>
     <r>
       <rPr>
@@ -822,48 +779,93 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>alue_md</t>
+      <t xml:space="preserve"> value_en from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "name"</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"202381",
-"tenantId":"",
-"tenantUserId":"123",
-"deleteData":"email"
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"2029937",
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"20232",
 "tenantId":"1001",
-"tenantUserId":"005",
-"deleteData":"email111"
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+"tenantUserId":"000115",
+"deleteData":"mobileNo,certNo"
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"202361",
+"tenantId":"1001",
+"tenantUserId":"000115"
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张*</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"203011",
+"tenantId":"1001",
+"tenantUserId":"000115",
+"deleteData":"all"
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"20238",
+"tenantId":"1001",
+"tenantUserId":"000115",
+"deleteData":"dwewr"
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select value_en from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "mobileNo";
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
 "requestId":"2023003",
 "tenantId":"1001",
-"tenantUserId":"005",
+"tenantUserId":"000115",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>a71249d4fe6f56f76de86b532ef74c1b</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"20300002",
+"tenantId":"1001",
+"tenantUserId":"000113",
+"deleteData":"all"
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"20239",
+"tenantId":"1001",
+"tenantUserId":"000113",
+"deleteData":""
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvJT0ijDhOdKUeT7uckd3A==</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvJT0ijDhOdKUeT7uckd3A==</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">select  * </t>
+      <t xml:space="preserve">select  </t>
     </r>
     <r>
       <rPr>
@@ -874,7 +876,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> from user_info_item where tenant_user_id =</t>
+      <t>key_value from user_info_item where tenant_user_id = 000115 and tenant_id = 1001 and key_name = "name"</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>select value_en from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "name";</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select  </t>
     </r>
     <r>
       <rPr>
@@ -885,21 +897,80 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>005 and tenant_id = 1001 and key_name = "email"</t>
+      <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"requestId":"20232",
+"tenantId":"1001",
+"tenantUserId":"000115",
+"deleteData":"name"}
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"2029937",
+"tenantId":"1001",
+"tenantUserId":"000113",
+"deleteData":"email111"
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,109 +1108,109 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1424,11 +1495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1437,22 +1508,21 @@
     <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.4140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="75.75" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="12" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="10" customWidth="1"/>
     <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
     <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="28.9140625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.9140625" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="5"/>
+    <col min="14" max="14" width="28.9140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="65.9140625" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
+    <row r="1" spans="1:15" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,552 +1563,521 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" customHeight="1">
+    <row r="2" spans="1:15" ht="409.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="30" t="s">
-        <v>85</v>
+      <c r="K2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="30" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="102.5" customHeight="1">
+    <row r="3" spans="1:15" ht="102.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="25"/>
+      <c r="K3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:16" ht="73.25" customHeight="1">
+    <row r="4" spans="1:15" ht="73.25" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="10" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="21" t="s">
+      <c r="I4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16" t="s">
+      <c r="K4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="67.75" customHeight="1">
+    <row r="5" spans="1:15" ht="293" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" s="28" t="s">
+      <c r="K5" s="14" t="s">
         <v>81</v>
       </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="71.400000000000006" customHeight="1">
+    <row r="6" spans="1:15" ht="156" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="21" t="s">
+      <c r="I6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="30" t="s">
-        <v>85</v>
+      <c r="K6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="32" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="71.400000000000006" customHeight="1">
+    <row r="7" spans="1:15" ht="71.400000000000006" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="32" t="s">
+      <c r="K7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>95</v>
+      <c r="O7" s="30" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="71.400000000000006" customHeight="1">
+    <row r="8" spans="1:15" ht="71.400000000000006" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="21" t="s">
+      <c r="I8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="18" t="s">
+      <c r="K8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="30" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="9" spans="1:16" ht="71.400000000000006" customHeight="1">
+    <row r="9" spans="1:15" ht="71.400000000000006" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="21" t="s">
+      <c r="I9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>95</v>
+      <c r="K9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="69.650000000000006" customHeight="1">
+    <row r="10" spans="1:15" ht="69.650000000000006" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="21" t="s">
+      <c r="I10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="31" t="s">
+      <c r="K10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="30" t="s">
+      <c r="L10" s="13"/>
+      <c r="M10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="144.5" customHeight="1">
+    <row r="11" spans="1:15" ht="144.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="21" t="s">
+      <c r="I11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="30" t="s">
-        <v>91</v>
+      <c r="K11" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="94.75" customHeight="1">
+    <row r="12" spans="1:15" ht="94.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="10" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="9"/>
+      <c r="K12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" ht="67.75" customHeight="1">
+    <row r="13" spans="1:15" ht="67.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="10" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="21" t="s">
+      <c r="I13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="9"/>
+      <c r="K13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" ht="266">
+    <row r="14" spans="1:15" ht="266">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="10" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="21" t="s">
+      <c r="I14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="15" spans="1:16" ht="252">
+    <row r="15" spans="1:15" ht="252">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="10" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="21" t="s">
+      <c r="I15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16" t="s">
-        <v>50</v>
+      <c r="K15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="266">
+    <row r="16" spans="1:15" ht="266">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="10" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="266">
@@ -2046,72 +2085,76 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="10" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="21" t="s">
+      <c r="I17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="16" t="s">
-        <v>54</v>
+      <c r="K17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="70">
+    <row r="18" spans="1:13" ht="409.5">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="21" t="s">
+      <c r="I18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="16" t="s">
-        <v>45</v>
+      <c r="K18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
     <hyperlink ref="H7:H9" r:id="rId2" display="https://user-center-thu.tunaikita.id/user"/>
-    <hyperlink ref="O7:O8" r:id="rId3" display="9834***@126.com"/>
-    <hyperlink ref="O7" r:id="rId4" display="1234***@126.com"/>
-    <hyperlink ref="O8" r:id="rId5" display="1234***@126.com"/>
-    <hyperlink ref="O9" r:id="rId6" display="1234***@126.com"/>
+    <hyperlink ref="N7:N8" r:id="rId3" display="9834***@126.com"/>
+    <hyperlink ref="N7" r:id="rId4" display="1234***@126.com"/>
+    <hyperlink ref="N8" r:id="rId5" display="1234***@126.com"/>
+    <hyperlink ref="N9" r:id="rId6" display="1234***@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
+++ b/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
@@ -134,73 +134,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="101">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId已存在</t>
     <rPh sb="14" eb="15">
       <t>yi'cun'zai</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -208,7 +208,7 @@
     "resMsg": "请求重复",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -216,7 +216,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -229,7 +229,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -242,7 +242,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -255,7 +255,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -268,7 +268,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -281,7 +281,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -294,11 +294,11 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>注销成功</t>
@@ -308,7 +308,7 @@
     <rPh sb="2" eb="3">
       <t>bu</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -316,14 +316,14 @@
     "resMsg": "用户不存在",
     "successful": 0
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData缺失</t>
     <rPh sb="16" eb="17">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -331,14 +331,14 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为all</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为部分值4选2，3</t>
@@ -354,7 +354,7 @@
     <rPh sb="21" eb="22">
       <t>xuan</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为创建时为空参数</t>
@@ -373,25 +373,25 @@
     <rPh sb="22" eb="23">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为 name11</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为dwewr</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为空</t>
     <rPh sb="17" eb="18">
       <t>kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -405,7 +405,7 @@
     <rPh sb="2" eb="3">
       <t>shan'chu</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -414,7 +414,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -423,7 +423,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value []; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -432,7 +432,7 @@
 "tenantUserId":"",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-deleteData</t>
@@ -445,7 +445,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -453,11 +453,11 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>/logout</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -466,7 +466,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value []; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -474,7 +474,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -483,7 +483,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -491,7 +491,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -500,7 +500,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -508,7 +508,7 @@
 "tenantId":"1001",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -517,7 +517,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -545,11 +545,11 @@
     "successful": 1
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>userLogout-001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>userLogout-002</t>
@@ -605,7 +605,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -614,7 +614,7 @@
 "tenantUserId":"aaa",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -623,62 +623,13 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">select  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value_md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "email"</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
 delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
 delete from user_index where tenant_user_id = 005 and tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -686,7 +637,7 @@
 "tenantId":"1001",
 "tenantUserId":"005"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -715,7 +666,7 @@
       <t>;
 select value_md from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "name"</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -724,22 +675,6 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value []; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -764,7 +699,7 @@
       <t xml:space="preserve">delete from user_request_serial where tenant_id = 1001
 </t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -781,7 +716,7 @@
       </rPr>
       <t xml:space="preserve"> value_en from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "name"</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -790,7 +725,7 @@
 "tenantUserId":"000115",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -798,11 +733,11 @@
 "tenantId":"1001",
 "tenantUserId":"000115"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>张*</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -811,7 +746,7 @@
 "tenantUserId":"000115",
 "deleteData":"all"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -820,13 +755,13 @@
 "tenantUserId":"000115",
 "deleteData":"dwewr"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 select value_en from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "mobileNo";
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -835,7 +770,7 @@
 "tenantUserId":"000115",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -844,7 +779,7 @@
 "tenantUserId":"000113",
 "deleteData":"all"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -853,14 +788,6 @@
 "tenantUserId":"000113",
 "deleteData":""
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>mvJT0ijDhOdKUeT7uckd3A==</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>mvJT0ijDhOdKUeT7uckd3A==</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -878,11 +805,11 @@
       </rPr>
       <t>key_value from user_info_item where tenant_user_id = 000115 and tenant_id = 1001 and key_name = "name"</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>select value_en from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -899,7 +826,7 @@
       </rPr>
       <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -916,7 +843,7 @@
       </rPr>
       <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -925,7 +852,7 @@
 "tenantUserId":"000115",
 "deleteData":"name"}
 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -934,35 +861,115 @@
 "tenantUserId":"000113",
 "deleteData":"email111"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>selSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">delete from user_request_serial where tenant_id = 1001
+</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>03065f0f961760adf3d79341ac1972e2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>03065f0f961760adf3d79341ac1972e2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1108,43 +1115,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1165,22 +1172,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1189,9 +1196,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1212,6 +1216,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1499,7 +1509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1563,10 +1573,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409.5" customHeight="1">
@@ -1581,11 +1591,11 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>78</v>
+      <c r="F2" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>24</v>
@@ -1597,15 +1607,15 @@
         <v>14</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="14" t="s">
         <v>68</v>
       </c>
       <c r="N2" s="22"/>
-      <c r="O2" s="30" t="s">
-        <v>79</v>
+      <c r="O2" s="29" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="102.5" customHeight="1">
@@ -1653,7 +1663,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="26"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="12"/>
       <c r="H4" s="9" t="s">
         <v>24</v>
@@ -1665,7 +1675,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="14" t="s">
@@ -1684,8 +1694,8 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1696,17 +1706,17 @@
         <v>14</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>91</v>
+      <c r="N5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="156" customHeight="1">
@@ -1721,8 +1731,8 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
@@ -1733,15 +1743,15 @@
         <v>14</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="19" t="s">
         <v>50</v>
       </c>
       <c r="N6" s="22"/>
-      <c r="O6" s="32" t="s">
-        <v>92</v>
+      <c r="O6" s="31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="71.400000000000006" customHeight="1">
@@ -1756,8 +1766,12 @@
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="H7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1768,17 +1782,17 @@
         <v>14</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="71.400000000000006" customHeight="1">
@@ -1793,8 +1807,12 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1805,17 +1823,17 @@
         <v>14</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="71.400000000000006" customHeight="1">
@@ -1830,8 +1848,12 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="H9" s="9" t="s">
         <v>24</v>
       </c>
@@ -1842,17 +1864,17 @@
         <v>14</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>71</v>
+        <v>100</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="69.650000000000006" customHeight="1">
@@ -1867,8 +1889,8 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="9" t="s">
         <v>24</v>
       </c>
@@ -1879,15 +1901,15 @@
         <v>14</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="14" t="s">
         <v>29</v>
       </c>
       <c r="N10" s="22"/>
-      <c r="O10" s="32" t="s">
-        <v>85</v>
+      <c r="O10" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="144.5" customHeight="1">
@@ -1902,8 +1924,8 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="9" t="s">
         <v>24</v>
       </c>
@@ -1914,15 +1936,15 @@
         <v>14</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="14" t="s">
         <v>29</v>
       </c>
       <c r="N11" s="22"/>
-      <c r="O11" s="27" t="s">
-        <v>75</v>
+      <c r="O11" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="94.75" customHeight="1">
@@ -1953,7 +1975,7 @@
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="67.75" customHeight="1">
@@ -2123,11 +2145,11 @@
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>72</v>
+      <c r="F18" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>24</v>
@@ -2139,7 +2161,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="14" t="s">
@@ -2147,7 +2169,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
     <hyperlink ref="H7:H9" r:id="rId2" display="https://user-center-thu.tunaikita.id/user"/>

--- a/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
+++ b/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10690"/>
   </bookViews>
   <sheets>
     <sheet name="userLogout" sheetId="2" r:id="rId1"/>
@@ -134,73 +134,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="108">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId已存在</t>
     <rPh sb="14" eb="15">
       <t>yi'cun'zai</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -208,7 +208,7 @@
     "resMsg": "请求重复",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -216,7 +216,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -229,7 +229,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -242,7 +242,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -255,7 +255,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -268,7 +268,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -281,7 +281,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -294,11 +294,11 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>注销成功</t>
@@ -308,7 +308,7 @@
     <rPh sb="2" eb="3">
       <t>bu</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -316,14 +316,14 @@
     "resMsg": "用户不存在",
     "successful": 0
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData缺失</t>
     <rPh sb="16" eb="17">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -331,14 +331,14 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为all</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为部分值4选2，3</t>
@@ -354,7 +354,7 @@
     <rPh sb="21" eb="22">
       <t>xuan</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为创建时为空参数</t>
@@ -373,25 +373,25 @@
     <rPh sb="22" eb="23">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为 name11</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为dwewr</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为空</t>
     <rPh sb="17" eb="18">
       <t>kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -405,7 +405,7 @@
     <rPh sb="2" eb="3">
       <t>shan'chu</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -414,7 +414,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -423,7 +423,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value []; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -432,7 +432,7 @@
 "tenantUserId":"",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-deleteData</t>
@@ -445,7 +445,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -453,11 +453,11 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>/logout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -466,7 +466,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value []; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -474,7 +474,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -483,7 +483,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -491,7 +491,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -500,7 +500,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -508,7 +508,7 @@
 "tenantId":"1001",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -517,7 +517,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -545,11 +545,11 @@
     "successful": 1
 }</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>userLogout-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>userLogout-002</t>
@@ -605,7 +605,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -614,7 +614,7 @@
 "tenantUserId":"aaa",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -623,13 +623,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 005 and tenant_id = 1001;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -637,36 +631,7 @@
 "tenantId":"1001",
 "tenantUserId":"005"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select value_en</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;
-select value_md from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "name"</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -675,31 +640,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value []; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">delete from user_request_serial where tenant_id = 1001
-</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -716,7 +657,7 @@
       </rPr>
       <t xml:space="preserve"> value_en from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "name"</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -725,7 +666,7 @@
 "tenantUserId":"000115",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -733,20 +674,11 @@
 "tenantId":"1001",
 "tenantUserId":"000115"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>张*</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"203011",
-"tenantId":"1001",
-"tenantUserId":"000115",
-"deleteData":"all"
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -755,13 +687,7 @@
 "tenantUserId":"000115",
 "deleteData":"dwewr"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-select value_en from user_info_item where tenant_user_id =005 and tenant_id = 1001 and key_name = "mobileNo";
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -770,7 +696,7 @@
 "tenantUserId":"000115",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -779,16 +705,7 @@
 "tenantUserId":"000113",
 "deleteData":"all"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"20239",
-"tenantId":"1001",
-"tenantUserId":"000113",
-"deleteData":""
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -805,11 +722,11 @@
       </rPr>
       <t>key_value from user_info_item where tenant_user_id = 000115 and tenant_id = 1001 and key_name = "name"</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>select value_en from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -826,7 +743,7 @@
       </rPr>
       <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -843,7 +760,7 @@
       </rPr>
       <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -852,7 +769,7 @@
 "tenantUserId":"000115",
 "deleteData":"name"}
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -861,63 +778,15 @@
 "tenantUserId":"000113",
 "deleteData":"email111"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>selSQL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">delete from user_request_serial where tenant_id = 1001
-</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -934,42 +803,400 @@
       </rPr>
       <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>03065f0f961760adf3d79341ac1972e2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>03065f0f961760adf3d79341ac1972e2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_info_item where id = 100353683391;
+delete from user_info_item where id = 100353683401;
+delete from user_info_item where id =100353683411;
+delete from user_info_item where id =100353683421;
+delete from user_info_item where id =1002897131;
+delete from user_info_item where id =1002897133;
+delete from user_info_item where id =1002897135;
+delete from user_info_item where id =1002897137;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_info_item where id =100012;
+delete from user_info_item where id =100013;
+delete from user_info_item where id =1000019;
+delete from user_info_item where id =1000015;
+delete from user_index where tenant_user_id = 005 and tenant_id = 1001;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+select value_en from user_info_item where tenant_user_id =00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 and tenant_id = 1001 and key_name = "mobileNo";
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"203011",
+"tenantId":"1001",
+"tenantUserId":"000115",
+"deleteData":"all"
+}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_info_item where id = 100353683391;
+delete from user_info_item where id = 100353683401;
+delete from user_info_item where id =100353683411;
+delete from user_info_item where id =100353683421;
+delete from user_info_item where id =1002897131;
+delete from user_info_item where id =1002897133;
+delete from user_info_item where id =1002897135;
+delete from user_info_item where id =1002897137;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_request_serial where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">request_id=202239 and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tenant_id = 1001</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"202239",
+"tenantId":"1001",
+"tenantUserId":"000113",
+"deleteData":""
+}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>delete from user_basic_info where tenant_user_id = 000115;
+delete from user_info_item where id = 100353683391;
+delete from user_info_item where id = 100353683401;
+delete from user_info_item where id =100353683411;
+delete from user_info_item where id =100353683421;
+delete from user_index where tenant_user_id = 000115;
+delete from user_info_item where tenant_user_id = 00011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+delete from user_request_serial where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">request_id=203011 and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tenant_id = 1001</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_request_serial (id,request_id,tenant_id,tenant_user_id,type,status,create_time,update_time) values ("9999","20232","1001","000112","1","1","2020-04-14 15:31:11","2020-04-14 15:31:11");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_info_item where id = 100353683391;
+delete from user_info_item where id = 100353683401;
+delete from user_info_item where id =100353683411;
+delete from user_info_item where id =100353683421;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000115 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and tenant_id = 1001;
+delete from user_request_serial where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">request_id=20232 and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tenant_id = 1001</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where id = 9999;
+delete from user_request_serial where request_id=20232;
+delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_info_item where id = 100353683391;
+delete from user_info_item where id = 100353683401;
+delete from user_info_item where id =100353683411;
+delete from user_info_item where id =100353683421;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_info_item where id = 100353683391;
+delete from user_info_item where id = 100353683401;
+delete from user_info_item where id =100353683411;
+delete from user_info_item where id =100353683421;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 00011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;
+delete from user_request_serial where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">request_id=203011 and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tenant_id = 1001</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1115,113 +1342,110 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1507,9 +1731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1519,8 +1743,8 @@
     <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="2.4140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="75.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32" style="8" customWidth="1"/>
+    <col min="6" max="6" width="103.58203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="57.75" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
     <col min="10" max="10" width="24.25" style="10" customWidth="1"/>
@@ -1573,10 +1797,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409.5" customHeight="1">
@@ -1592,10 +1816,10 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>75</v>
+        <v>101</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>24</v>
@@ -1607,15 +1831,15 @@
         <v>14</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="29" t="s">
-        <v>76</v>
+      <c r="N2" s="21"/>
+      <c r="O2" s="25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="102.5" customHeight="1">
@@ -1648,8 +1872,8 @@
       <c r="M3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" ht="73.25" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -1658,13 +1882,17 @@
       <c r="B4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
@@ -1675,7 +1903,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="14" t="s">
@@ -1689,13 +1917,17 @@
       <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1706,33 +1938,37 @@
         <v>14</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>86</v>
+      <c r="N5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="156" customHeight="1">
+    <row r="6" spans="1:15" ht="291.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>107</v>
+      </c>
       <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
@@ -1743,34 +1979,34 @@
         <v>14</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="31" t="s">
-        <v>87</v>
+      <c r="N6" s="21"/>
+      <c r="O6" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="71.400000000000006" customHeight="1">
+    <row r="7" spans="1:15" ht="262.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>96</v>
+      <c r="F7" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>24</v>
@@ -1782,36 +2018,36 @@
         <v>14</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="71.400000000000006" customHeight="1">
+    <row r="8" spans="1:15" ht="292.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>75</v>
+        <v>102</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>24</v>
@@ -1823,36 +2059,36 @@
         <v>14</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="71.400000000000006" customHeight="1">
+    <row r="9" spans="1:15" ht="144" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="32" t="s">
-        <v>95</v>
+      <c r="F9" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>24</v>
@@ -1864,33 +2100,37 @@
         <v>14</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="69.650000000000006" customHeight="1">
+    <row r="10" spans="1:15" ht="158" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>24</v>
       </c>
@@ -1901,15 +2141,15 @@
         <v>14</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="31" t="s">
-        <v>82</v>
+      <c r="N10" s="21"/>
+      <c r="O10" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="144.5" customHeight="1">
@@ -1919,13 +2159,17 @@
       <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="F11" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="H11" s="9" t="s">
         <v>24</v>
       </c>
@@ -1935,16 +2179,16 @@
       <c r="J11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>84</v>
+      <c r="K11" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="26" t="s">
-        <v>73</v>
+      <c r="N11" s="21"/>
+      <c r="O11" s="30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="94.75" customHeight="1">
@@ -1975,7 +2219,7 @@
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="67.75" customHeight="1">
@@ -2145,11 +2389,11 @@
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>71</v>
+      <c r="G18" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>24</v>
@@ -2161,7 +2405,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="14" t="s">
@@ -2169,7 +2413,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
     <hyperlink ref="H7:H9" r:id="rId2" display="https://user-center-thu.tunaikita.id/user"/>

--- a/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
+++ b/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userLogout/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10690"/>
+    <workbookView xWindow="7580" yWindow="-20500" windowWidth="29580" windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="userLogout" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,73 +145,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId已存在</t>
     <rPh sb="14" eb="15">
       <t>yi'cun'zai</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -208,7 +219,7 @@
     "resMsg": "请求重复",
     "successful": 1
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -216,7 +227,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -229,7 +240,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -242,7 +253,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -255,7 +266,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -268,7 +279,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -281,7 +292,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -294,11 +305,11 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>注销成功</t>
@@ -308,7 +319,7 @@
     <rPh sb="2" eb="3">
       <t>bu</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -316,14 +327,14 @@
     "resMsg": "用户不存在",
     "successful": 0
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData缺失</t>
     <rPh sb="16" eb="17">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -331,14 +342,14 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为all</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为部分值4选2，3</t>
@@ -354,7 +365,7 @@
     <rPh sb="21" eb="22">
       <t>xuan</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为创建时为空参数</t>
@@ -373,25 +384,25 @@
     <rPh sb="22" eb="23">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为 name11</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为dwewr</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为空</t>
     <rPh sb="17" eb="18">
       <t>kong</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -405,7 +416,7 @@
     <rPh sb="2" eb="3">
       <t>shan'chu</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -414,7 +425,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -423,7 +434,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value []; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -432,7 +443,7 @@
 "tenantUserId":"",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-deleteData</t>
@@ -445,7 +456,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -453,11 +464,11 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>/logout</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -466,7 +477,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value []; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -474,7 +485,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -483,7 +494,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -491,7 +502,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -500,7 +511,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -508,7 +519,7 @@
 "tenantId":"1001",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -517,7 +528,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -545,11 +556,11 @@
     "successful": 1
 }</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>userLogout-001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>userLogout-002</t>
@@ -605,7 +616,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -614,7 +625,7 @@
 "tenantUserId":"aaa",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -623,7 +634,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -631,7 +642,7 @@
 "tenantId":"1001",
 "tenantUserId":"005"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -640,7 +651,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value []; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -652,12 +663,11 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> value_en from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "name"</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -666,7 +676,7 @@
 "tenantUserId":"000115",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -674,11 +684,11 @@
 "tenantId":"1001",
 "tenantUserId":"000115"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>张*</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -687,7 +697,7 @@
 "tenantUserId":"000115",
 "deleteData":"dwewr"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -696,7 +706,7 @@
 "tenantUserId":"000115",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -705,7 +715,7 @@
 "tenantUserId":"000113",
 "deleteData":"all"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -717,16 +727,15 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>key_value from user_info_item where tenant_user_id = 000115 and tenant_id = 1001 and key_name = "name"</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>select value_en from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -738,12 +747,11 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -755,12 +763,11 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -769,7 +776,7 @@
 "tenantUserId":"000115",
 "deleteData":"name"}
 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -778,15 +785,15 @@
 "tenantUserId":"000113",
 "deleteData":"email111"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>selSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -798,71 +805,19 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>03065f0f961760adf3d79341ac1972e2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>03065f0f961760adf3d79341ac1972e2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_info_item where id = 100353683391;
-delete from user_info_item where id = 100353683401;
-delete from user_info_item where id =100353683411;
-delete from user_info_item where id =100353683421;
-delete from user_info_item where id =1002897131;
-delete from user_info_item where id =1002897133;
-delete from user_info_item where id =1002897135;
-delete from user_info_item where id =1002897137;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_info_item where id =100012;
-delete from user_info_item where id =100013;
-delete from user_info_item where id =1000019;
-delete from user_info_item where id =1000015;
-delete from user_index where tenant_user_id = 005 and tenant_id = 1001;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -875,7 +830,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>011</t>
@@ -886,27 +840,16 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">5 and tenant_id = 1001 and key_name = "mobileNo";
 </t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -915,48 +858,7 @@
 "tenantUserId":"000115",
 "deleteData":"all"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_info_item where id = 100353683391;
-delete from user_info_item where id = 100353683401;
-delete from user_info_item where id =100353683411;
-delete from user_info_item where id =100353683421;
-delete from user_info_item where id =1002897131;
-delete from user_info_item where id =1002897133;
-delete from user_info_item where id =1002897135;
-delete from user_info_item where id =1002897137;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">request_id=202239 and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tenant_id = 1001</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -965,84 +867,7 @@
 "tenantUserId":"000113",
 "deleteData":""
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>delete from user_basic_info where tenant_user_id = 000115;
-delete from user_info_item where id = 100353683391;
-delete from user_info_item where id = 100353683401;
-delete from user_info_item where id =100353683411;
-delete from user_info_item where id =100353683421;
-delete from user_index where tenant_user_id = 000115;
-delete from user_info_item where tenant_user_id = 00011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">;
-delete from user_request_serial where </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">request_id=203011 and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tenant_id = 1001</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">insert into user_request_serial (id,request_id,tenant_id,tenant_user_id,type,status,create_time,update_time) values ("9999","20232","1001","000112","1","1","2020-04-14 15:31:11","2020-04-14 15:31:11");
@@ -1053,150 +878,73 @@
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_info_item where id = 100353683391;
-delete from user_info_item where id = 100353683401;
-delete from user_info_item where id =100353683411;
-delete from user_info_item where id =100353683421;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000115 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and tenant_id = 1001;
-delete from user_request_serial where </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">request_id=20232 and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tenant_id = 1001</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where id = 9999;
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "005" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_request_serial where request_id=20232 and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 delete from user_request_serial where request_id=20232;
-delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_info_item where id = 100353683391;
-delete from user_info_item where id = 100353683401;
-delete from user_info_item where id =100353683411;
-delete from user_info_item where id =100353683421;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>delete from user_basic_info where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_info_item where id = 100353683391;
-delete from user_info_item where id = 100353683401;
-delete from user_info_item where id =100353683411;
-delete from user_info_item where id =100353683421;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 00011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;
-delete from user_request_serial where </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">request_id=203011 and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tenant_id = 1001</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+delete from user_basic_info where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1299,7 +1047,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1324,12 +1072,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1342,43 +1084,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1399,54 +1141,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1731,39 +1471,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="2.4140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="103.58203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="57.75" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="10" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="28.9140625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="65.9140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="1" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="103.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="10" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="28.83203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="65.83203125" style="5" customWidth="1"/>
     <col min="16" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1">
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1803,7 +1543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="409.5" customHeight="1">
+    <row r="2" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1815,11 +1555,11 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>101</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>105</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>24</v>
@@ -1838,11 +1578,11 @@
         <v>68</v>
       </c>
       <c r="N2" s="21"/>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="102.5" customHeight="1">
+    <row r="3" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1875,23 +1615,23 @@
       <c r="N3" s="21"/>
       <c r="O3" s="20"/>
     </row>
-    <row r="4" spans="1:15" ht="73.25" customHeight="1">
+    <row r="4" spans="1:15" ht="164" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>106</v>
+      <c r="F4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
@@ -1910,23 +1650,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="293" customHeight="1">
+    <row r="5" spans="1:15" ht="293" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>91</v>
+      <c r="F5" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>24</v>
@@ -1944,30 +1684,30 @@
       <c r="M5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="291.5" customHeight="1">
+    <row r="6" spans="1:15" ht="291.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>107</v>
+      <c r="F6" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>24</v>
@@ -1979,34 +1719,34 @@
         <v>14</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="19" t="s">
         <v>50</v>
       </c>
       <c r="N6" s="21"/>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="262.5" customHeight="1">
+    <row r="7" spans="1:15" ht="262.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>91</v>
+      <c r="F7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>24</v>
@@ -2024,30 +1764,30 @@
       <c r="M7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="292.5" customHeight="1">
+    <row r="8" spans="1:15" ht="292.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>103</v>
+      <c r="F8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>24</v>
@@ -2065,30 +1805,30 @@
       <c r="M8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="144" customHeight="1">
+    <row r="9" spans="1:15" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>99</v>
+      <c r="F9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>24</v>
@@ -2100,7 +1840,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="14" t="s">
@@ -2109,27 +1849,27 @@
       <c r="N9" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="158" customHeight="1">
+    <row r="10" spans="1:15" ht="158" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>91</v>
+      <c r="F10" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>24</v>
@@ -2148,27 +1888,27 @@
         <v>29</v>
       </c>
       <c r="N10" s="21"/>
-      <c r="O10" s="30" t="s">
-        <v>95</v>
+      <c r="O10" s="27" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="144.5" customHeight="1">
+    <row r="11" spans="1:15" ht="144.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="30" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>91</v>
+      <c r="F11" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>24</v>
@@ -2187,11 +1927,11 @@
         <v>29</v>
       </c>
       <c r="N11" s="21"/>
-      <c r="O11" s="30" t="s">
+      <c r="O11" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="94.75" customHeight="1">
+    <row r="12" spans="1:15" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2222,7 +1962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="67.75" customHeight="1">
+    <row r="13" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2253,7 +1993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="266">
+    <row r="14" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2284,7 +2024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="252">
+    <row r="15" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2315,7 +2055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="266">
+    <row r="16" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2346,7 +2086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="266">
+    <row r="17" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2377,7 +2117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="409.5">
+    <row r="18" spans="1:13" ht="409" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2389,11 +2129,11 @@
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>93</v>
+      <c r="F18" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>24</v>
@@ -2413,17 +2153,15 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
     <hyperlink ref="H7:H9" r:id="rId2" display="https://user-center-thu.tunaikita.id/user"/>
-    <hyperlink ref="N7:N8" r:id="rId3" display="9834***@126.com"/>
-    <hyperlink ref="N7" r:id="rId4" display="1234***@126.com"/>
-    <hyperlink ref="N8" r:id="rId5" display="1234***@126.com"/>
-    <hyperlink ref="N9" r:id="rId6" display="1234***@126.com"/>
+    <hyperlink ref="N8" r:id="rId3" display="1234***@126.com"/>
+    <hyperlink ref="N9" r:id="rId4" display="1234***@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
+++ b/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="-20500" windowWidth="29580" windowHeight="17380"/>
+    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="userLogout" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -754,37 +754,12 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">select  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">{
 "requestId":"20232",
 "tenantId":"1001",
 "tenantUserId":"000115",
 "deleteData":"name"}
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"2029937",
-"tenantId":"1001",
-"tenantUserId":"000113",
-"deleteData":"email111"
-}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -933,6 +908,15 @@
 delete from user_basic_info where tenant_user_id = "000115" and tenant_id = "1001";
 delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";
 delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>{
+"requestId":"2029937",
+"tenantId":"1001",
+"tenantUserId":"000113",
+"deleteData":"name111"
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1141,36 +1125,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1186,7 +1158,21 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1471,16 +1457,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="27" customWidth="1"/>
     <col min="4" max="4" width="1" style="8" customWidth="1"/>
     <col min="5" max="5" width="2.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="103.5" style="8" customWidth="1"/>
@@ -1492,7 +1478,7 @@
     <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
     <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="28.83203125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="65.83203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="65.83203125" style="31" customWidth="1"/>
     <col min="16" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
@@ -1503,7 +1489,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1537,10 +1523,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1555,11 +1541,11 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>101</v>
+      <c r="F2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>24</v>
@@ -1567,18 +1553,18 @@
       <c r="I2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="29" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1602,7 +1588,7 @@
       <c r="I3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="14" t="s">
@@ -1612,8 +1598,8 @@
       <c r="M3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="20"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="164" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -1627,11 +1613,11 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>102</v>
+      <c r="F4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
@@ -1639,7 +1625,7 @@
       <c r="I4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="14" t="s">
@@ -1657,16 +1643,16 @@
       <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>101</v>
+      <c r="F5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>24</v>
@@ -1674,7 +1660,7 @@
       <c r="I5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="14" t="s">
@@ -1684,30 +1670,30 @@
       <c r="M5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="291.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>101</v>
+      <c r="F6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>24</v>
@@ -1715,18 +1701,18 @@
       <c r="I6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L6" s="13"/>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="25" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="22" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1737,16 +1723,16 @@
       <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>100</v>
+      <c r="F7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>24</v>
@@ -1754,20 +1740,20 @@
       <c r="I7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1778,16 +1764,16 @@
       <c r="B8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>101</v>
+      <c r="F8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>24</v>
@@ -1795,7 +1781,7 @@
       <c r="I8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="14" t="s">
@@ -1805,11 +1791,11 @@
       <c r="M8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>83</v>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="144" customHeight="1" x14ac:dyDescent="0.2">
@@ -1819,16 +1805,16 @@
       <c r="B9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>100</v>
+      <c r="F9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>24</v>
@@ -1836,21 +1822,21 @@
       <c r="I9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="26" t="s">
+      <c r="N9" t="s">
         <v>88</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="158" customHeight="1" x14ac:dyDescent="0.2">
@@ -1860,16 +1846,16 @@
       <c r="B10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>101</v>
+      <c r="F10" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>24</v>
@@ -1877,7 +1863,7 @@
       <c r="I10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="14" t="s">
@@ -1887,9 +1873,9 @@
       <c r="M10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="27" t="s">
-        <v>91</v>
+      <c r="N10" s="19"/>
+      <c r="O10" s="23" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="144.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1899,16 +1885,16 @@
       <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>100</v>
+      <c r="F11" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>24</v>
@@ -1916,7 +1902,7 @@
       <c r="I11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="15" t="s">
@@ -1926,8 +1912,8 @@
       <c r="M11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="27" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="23" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1951,7 +1937,7 @@
       <c r="I12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="14" t="s">
@@ -1982,7 +1968,7 @@
       <c r="I13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="14" t="s">
@@ -2013,7 +1999,7 @@
       <c r="I14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="14" t="s">
@@ -2044,7 +2030,7 @@
       <c r="I15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="14" t="s">
@@ -2075,7 +2061,7 @@
       <c r="I16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="14" t="s">
@@ -2106,7 +2092,7 @@
       <c r="I17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="14" t="s">
@@ -2129,11 +2115,11 @@
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>99</v>
+      <c r="F18" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>24</v>
@@ -2141,7 +2127,7 @@
       <c r="I18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="14" t="s">
@@ -2157,11 +2143,9 @@
   <hyperlinks>
     <hyperlink ref="H2:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
     <hyperlink ref="H7:H9" r:id="rId2" display="https://user-center-thu.tunaikita.id/user"/>
-    <hyperlink ref="N8" r:id="rId3" display="1234***@126.com"/>
-    <hyperlink ref="N9" r:id="rId4" display="1234***@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
+++ b/src/main/resources/caseconf/userLogout/Case_userLogout.xlsx
@@ -145,73 +145,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId已存在</t>
     <rPh sb="14" eb="15">
       <t>yi'cun'zai</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -219,7 +219,7 @@
     "resMsg": "请求重复",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -227,7 +227,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -240,7 +240,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -253,7 +253,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -266,7 +266,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -279,7 +279,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -292,7 +292,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -305,11 +305,11 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>注销成功</t>
@@ -319,7 +319,7 @@
     <rPh sb="2" eb="3">
       <t>bu</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -327,14 +327,14 @@
     "resMsg": "用户不存在",
     "successful": 0
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData缺失</t>
     <rPh sb="16" eb="17">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -342,14 +342,14 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为all</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为部分值4选2，3</t>
@@ -365,7 +365,7 @@
     <rPh sb="21" eb="22">
       <t>xuan</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为创建时为空参数</t>
@@ -384,25 +384,25 @@
     <rPh sb="22" eb="23">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为 name11</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为dwewr</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数-deleteData为空</t>
     <rPh sb="17" eb="18">
       <t>kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -416,7 +416,7 @@
     <rPh sb="2" eb="3">
       <t>shan'chu</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -425,7 +425,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -434,7 +434,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value []; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -443,7 +443,7 @@
 "tenantUserId":"",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-deleteData</t>
@@ -456,7 +456,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -464,11 +464,11 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>/logout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -477,7 +477,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value []; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -485,7 +485,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -494,7 +494,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -502,7 +502,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -511,7 +511,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.logoutUserInfoReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -519,7 +519,7 @@
 "tenantId":"1001",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -528,7 +528,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.logoutUserInfoReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -556,11 +556,11 @@
     "successful": 1
 }</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>userLogout-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>userLogout-002</t>
@@ -616,7 +616,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -625,7 +625,7 @@
 "tenantUserId":"aaa",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -634,7 +634,7 @@
 "tenantUserId":"123",
 "deleteData":"email"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -642,7 +642,7 @@
 "tenantId":"1001",
 "tenantUserId":"005"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -651,7 +651,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.logout(***.web.request.LogoutUserInfoReq): [Field error in object 'logoutUserInfoReq' on field 'requestId': rejected value []; codes [NotBlank.logoutUserInfoReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [logoutUserInfoReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -667,7 +667,7 @@
       </rPr>
       <t xml:space="preserve"> value_en from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "name"</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -676,7 +676,7 @@
 "tenantUserId":"000115",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -684,11 +684,11 @@
 "tenantId":"1001",
 "tenantUserId":"000115"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>张*</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -697,7 +697,7 @@
 "tenantUserId":"000115",
 "deleteData":"dwewr"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -706,7 +706,7 @@
 "tenantUserId":"000115",
 "deleteData":"mobileNo,certNo"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -715,7 +715,7 @@
 "tenantUserId":"000113",
 "deleteData":"all"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -731,11 +731,11 @@
       </rPr>
       <t>key_value from user_info_item where tenant_user_id = 000115 and tenant_id = 1001 and key_name = "name"</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>select value_en from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -751,7 +751,7 @@
       </rPr>
       <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -760,39 +760,15 @@
 "tenantUserId":"000115",
 "deleteData":"name"}
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>selSQL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">select  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value_md  from user_info_item where tenant_user_id =000115 and tenant_id = 1001 and key_name = "email"</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>03065f0f961760adf3d79341ac1972e2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>03065f0f961760adf3d79341ac1972e2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -820,11 +796,11 @@
       <t xml:space="preserve">5 and tenant_id = 1001 and key_name = "mobileNo";
 </t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -833,7 +809,7 @@
 "tenantUserId":"000115",
 "deleteData":"all"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -842,7 +818,7 @@
 "tenantUserId":"000113",
 "deleteData":""
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">insert into user_request_serial (id,request_id,tenant_id,tenant_user_id,type,status,create_time,update_time) values ("9999","20232","1001","000112","1","1","2020-04-14 15:31:11","2020-04-14 15:31:11");
@@ -853,7 +829,7 @@
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -863,7 +839,7 @@
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -873,7 +849,7 @@
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -882,7 +858,7 @@
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
@@ -916,7 +892,23 @@
 "tenantUserId":"000113",
 "deleteData":"name111"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>03065f0f961760adf3d79341ac1972e2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>03065f0f961760adf3d79341ac1972e2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  value_md  from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "email"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  value_md  from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "email"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -929,14 +921,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1030,6 +1014,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1068,43 +1059,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1128,49 +1119,55 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1457,9 +1454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1542,10 +1539,10 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>24</v>
@@ -1614,10 +1611,10 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
@@ -1649,10 +1646,10 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>24</v>
@@ -1679,7 +1676,7 @@
     </row>
     <row r="6" spans="1:15" ht="291.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>55</v>
@@ -1690,10 +1687,10 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>24</v>
@@ -1705,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="18" t="s">
@@ -1729,10 +1726,10 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>98</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>24</v>
@@ -1744,17 +1741,17 @@
         <v>14</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>82</v>
+      <c r="N7" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="292.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1770,10 +1767,10 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>24</v>
@@ -1791,8 +1788,8 @@
       <c r="M8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N8" t="s">
-        <v>88</v>
+      <c r="N8" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="O8" s="22" t="s">
         <v>82</v>
@@ -1811,10 +1808,10 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>98</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>24</v>
@@ -1826,17 +1823,17 @@
         <v>14</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N9" t="s">
-        <v>88</v>
+      <c r="N9" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="158" customHeight="1" x14ac:dyDescent="0.2">
@@ -1852,10 +1849,10 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>24</v>
@@ -1873,9 +1870,9 @@
       <c r="M10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="19"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="144.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1891,10 +1888,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>98</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>24</v>
@@ -2116,10 +2113,10 @@
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>24</v>
@@ -2139,7 +2136,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
     <hyperlink ref="H7:H9" r:id="rId2" display="https://user-center-thu.tunaikita.id/user"/>
